--- a/biology/Botanique/Moutarde_blanche/Moutarde_blanche.xlsx
+++ b/biology/Botanique/Moutarde_blanche/Moutarde_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinapis alba
 La moutarde blanche (Sinapis alba), sénevé ou sanve, est une espèce de plante annuelle de la famille des Brassicacées, cultivée pour ses graines servant à la préparation de condiments.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle de 50 à 80 cm de haut, à tiges assez ramifiées. De croissance rapide, elle peut arriver à maturité en à peine un mois.
 Les feuilles pennatipartites sont très profondément divisées, sauf celles de la partie supérieure des tiges, à lobes plus ou moins arrondis.
@@ -547,9 +561,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire d'Afrique du Nord, d'Europe (sauf les régions arctiques) et d'Asie occidentale (Proche-Orient)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire d'Afrique du Nord, d'Europe (sauf les régions arctiques) et d'Asie occidentale (Proche-Orient).
 C'est une plante commune en France, dans les champs et au bord des chemins. Elle est citée dans le capitulaire De Villis (fin du VIIIe ou début du IXe siècle) parmi les plantes potagères et condimentaires recommandées.
 </t>
         </is>
@@ -579,10 +595,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les Brassicacées, la moutarde blanche contient un glucosinolate, nommé sinalbine. Lors du broyage des graines et de la rupture des compartiments cellulaires qui en résulte, la sinalbine entre en contact avec une enzyme, la myrosinase, et se dégrade en isothiocyanate de p-hydroxybenzoyle. C'est cette dernière molécule, soufrée, qui est responsable de l'arôme de moutarde[2].
-La moutarde blanche est aussi une plante hyperaccumulatrice, capable de fortement bioconcentrer le thallium par exemple (capacité démontrée en laboratoire pour des concentrations de 0,1, 0,05 et 0,01 mg/L−1 dans l'eau disponible pour la plante, avec une voie d'incorporation qui varie beaucoup selon le mode de culture sur sol naturel ou en mode hydroponique notamment)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les Brassicacées, la moutarde blanche contient un glucosinolate, nommé sinalbine. Lors du broyage des graines et de la rupture des compartiments cellulaires qui en résulte, la sinalbine entre en contact avec une enzyme, la myrosinase, et se dégrade en isothiocyanate de p-hydroxybenzoyle. C'est cette dernière molécule, soufrée, qui est responsable de l'arôme de moutarde.
+La moutarde blanche est aussi une plante hyperaccumulatrice, capable de fortement bioconcentrer le thallium par exemple (capacité démontrée en laboratoire pour des concentrations de 0,1, 0,05 et 0,01 mg/L−1 dans l'eau disponible pour la plante, avec une voie d'incorporation qui varie beaucoup selon le mode de culture sur sol naturel ou en mode hydroponique notamment).
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines sont riches en lipides (environ 35 %) et produisent une huile à usage industriel ou alimentaire. Elles sont à la base de la préparation du condiment qui porte le même nom, la moutarde.
 La moutarde blanche est aussi une plante fourragère et une plante mellifère.
@@ -652,8 +672,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calendrier républicain
-Le sènevé voyait son nom attribué au 29e jour du mois de floréal du calendrier républicain / révolutionnaire français[4], généralement chaque 18 mai du calendrier grégorien.
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sènevé voyait son nom attribué au 29e jour du mois de floréal du calendrier républicain / révolutionnaire français, généralement chaque 18 mai du calendrier grégorien.
 </t>
         </is>
       </c>
